--- a/XlsSerializer.Examples.Web/data/Xlsx/modelwithMultipleSheets.xlsx
+++ b/XlsSerializer.Examples.Web/data/Xlsx/modelwithMultipleSheets.xlsx
@@ -17,52 +17,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>ee3ca71c-0d63-4e3d-88b4-ea5cede671a4</t>
-  </si>
-  <si>
-    <t>132385b2-1b94-4ddc-906f-c8a5e0380aac</t>
-  </si>
-  <si>
-    <t>62ccbd06-af1e-4b16-8e95-d5afdaa620df</t>
-  </si>
-  <si>
-    <t>80e7291b-9320-484a-9015-d1dd6ace9f2d</t>
-  </si>
-  <si>
-    <t>d8b9dd2d-a7f8-4cd1-b109-7fd20ea8d112</t>
-  </si>
-  <si>
-    <t>1da1f195-65fd-4f1d-80ff-240dd317f739</t>
-  </si>
-  <si>
-    <t>3ed53b5d-7b24-4ccc-92ea-b2684916c433</t>
-  </si>
-  <si>
-    <t>45161b3e-66a9-4309-8c3e-ab9ff8977890</t>
-  </si>
-  <si>
-    <t>76853784-3ad8-44f8-8e8e-5661155b526b</t>
-  </si>
-  <si>
-    <t>6c3a3de2-7d7e-4095-9837-e40d5f791e5c</t>
-  </si>
-  <si>
-    <t>ddc4eee7-e000-48e5-b52d-f18508ca5d55</t>
-  </si>
-  <si>
-    <t>74006dea-5cff-48d3-bba8-f56d3192627d</t>
-  </si>
-  <si>
-    <t>8539e96d-ba6b-4e6f-b5f0-b3949fff7a36</t>
-  </si>
-  <si>
-    <t>807d8293-b9eb-465c-975c-14adcff3734e</t>
-  </si>
-  <si>
-    <t>990dac9e-76b7-4ccc-a98c-d995a8057a19</t>
-  </si>
-  <si>
-    <t>953e4c78-298c-4cdf-b8cd-329352500ef7</t>
+    <t>75edfdc6-fa1c-493e-82d7-3f53394553c6</t>
+  </si>
+  <si>
+    <t>aa7a89dd-bfc6-4f02-9524-0d0c02691bd0</t>
+  </si>
+  <si>
+    <t>75b999fc-fa0a-4ffa-a090-545ed7369f1e</t>
+  </si>
+  <si>
+    <t>fd0808c4-346e-4447-9494-ff0416e1a57b</t>
+  </si>
+  <si>
+    <t>2a7aa036-4c71-44ff-8875-60bf257a1c43</t>
+  </si>
+  <si>
+    <t>4ed81b4c-6a60-4281-b8f5-0e9694ff2547</t>
+  </si>
+  <si>
+    <t>c9ca2f7f-455b-450e-a6fc-d4b1c1ea5608</t>
+  </si>
+  <si>
+    <t>721cc490-113a-489b-b350-975ba59686d5</t>
+  </si>
+  <si>
+    <t>3e56ada9-da7b-4f41-8d5e-1e9ffe55508d</t>
+  </si>
+  <si>
+    <t>fe1581fa-9201-434f-b3a7-72a157f8bfea</t>
+  </si>
+  <si>
+    <t>2dabd94a-5a5c-4c39-8dba-4a8aeded13f5</t>
+  </si>
+  <si>
+    <t>2f94eebc-784e-40de-bd4f-e8f832a017ab</t>
+  </si>
+  <si>
+    <t>43be9e8e-5318-4ae7-83ad-5ae4b1d3510d</t>
+  </si>
+  <si>
+    <t>288858bf-6150-4123-a0b9-a959a32e3e30</t>
+  </si>
+  <si>
+    <t>31083c2e-37d4-463a-9d1b-ded054f277bd</t>
+  </si>
+  <si>
+    <t>a9c7342a-93c8-40e1-aec1-8ef4f3aa8a93</t>
   </si>
 </sst>
 </file>
